--- a/info/Results_NN.xlsx
+++ b/info/Results_NN.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sree\netalytics\SensitiveDataDiscovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49B8C22-1489-4F14-928E-0892CCBE98CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546DB4FF-F7AC-46D4-9DEE-2B039E1D7524}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="5" r:id="rId1"/>
-    <sheet name="vm_dataset" sheetId="6" r:id="rId2"/>
-    <sheet name="Results_win" sheetId="1" r:id="rId3"/>
-    <sheet name="Readme" sheetId="3" r:id="rId4"/>
+    <sheet name="Results_win" sheetId="1" r:id="rId2"/>
+    <sheet name="Readme" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">vm_dataset!$A$1:$R$8</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +25,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="61">
   <si>
     <t>Output</t>
   </si>
@@ -228,199 +223,13 @@
   </si>
   <si>
     <t>EL150</t>
-  </si>
-  <si>
-    <t>sgd</t>
-  </si>
-  <si>
-    <t>4 vCore</t>
-  </si>
-  <si>
-    <t>8192 MB</t>
-  </si>
-  <si>
-    <t>4000 GB</t>
-  </si>
-  <si>
-    <t>Training accuracy</t>
-  </si>
-  <si>
-    <t>Testing accuracy</t>
-  </si>
-  <si>
-    <t>Core</t>
-  </si>
-  <si>
-    <t>RAM</t>
-  </si>
-  <si>
-    <t>Bandwidth</t>
-  </si>
-  <si>
-    <t>Predict
-incorrect</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>6 vCore</t>
-  </si>
-  <si>
-    <t>16384 MB</t>
-  </si>
-  <si>
-    <t>5000 GB</t>
-  </si>
-  <si>
-    <t>MEM ERROR</t>
-  </si>
-  <si>
-    <t>HANG</t>
-  </si>
-  <si>
-    <t>8 vCore</t>
-  </si>
-  <si>
-    <t>32768 MB</t>
-  </si>
-  <si>
-    <t>6000 GB</t>
-  </si>
-  <si>
-    <t>15 min</t>
-  </si>
-  <si>
-    <t># files</t>
-  </si>
-  <si>
-    <t>411, 4</t>
-  </si>
-  <si>
-    <t>400,5</t>
-  </si>
-  <si>
-    <t>Predict correct</t>
-  </si>
-  <si>
-    <t>14 min</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>470, 6</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>16 vCore</t>
-  </si>
-  <si>
-    <t>65536 MB</t>
-  </si>
-  <si>
-    <t>48 min</t>
-  </si>
-  <si>
-    <t>45 min</t>
-  </si>
-  <si>
-    <t>Disk
-SSD</t>
-  </si>
-  <si>
-    <t>160 GB</t>
-  </si>
-  <si>
-    <t>320 GB</t>
-  </si>
-  <si>
-    <t>640 GB</t>
-  </si>
-  <si>
-    <t>1280 GB</t>
-  </si>
-  <si>
-    <t>68 min</t>
-  </si>
-  <si>
-    <t>82 min</t>
-  </si>
-  <si>
-    <t>81 min</t>
-  </si>
-  <si>
-    <t>CRASH</t>
-  </si>
-  <si>
-    <t>Todo</t>
-  </si>
-  <si>
-    <t>Categorize new unseen files &amp; check how it fares</t>
-  </si>
-  <si>
-    <t>76 min</t>
-  </si>
-  <si>
-    <t>75 min</t>
-  </si>
-  <si>
-    <t>808, 8</t>
-  </si>
-  <si>
-    <t>814, 10</t>
-  </si>
-  <si>
-    <t>train size (bank)</t>
-  </si>
-  <si>
-    <t>train_size (code)</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>Categorize</t>
-  </si>
-  <si>
-    <t>10 min</t>
-  </si>
-  <si>
-    <t>0 min</t>
-  </si>
-  <si>
-    <t>All bank</t>
-  </si>
-  <si>
-    <t>30 min</t>
-  </si>
-  <si>
-    <t>train size (total)</t>
-  </si>
-  <si>
-    <t>MEM
-%</t>
-  </si>
-  <si>
-    <t>38 min</t>
-  </si>
-  <si>
-    <t>78 min</t>
-  </si>
-  <si>
-    <t>Results of Text Classification using Neural Networks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0\ \M"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,16 +258,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,20 +284,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -556,63 +345,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -653,56 +390,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -712,7 +399,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -996,11 +685,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB40"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1016,9 +705,9 @@
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="3" customWidth="1"/>
     <col min="13" max="13" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="10.42578125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="17.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="5.85546875" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="10.42578125" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -1516,19 +1205,19 @@
       <c r="Q7" s="2">
         <v>10</v>
       </c>
-      <c r="R7" s="16" t="s">
+      <c r="R7" s="19" t="s">
         <v>1</v>
       </c>
       <c r="S7" s="2">
         <v>1</v>
       </c>
-      <c r="T7" s="16" t="s">
+      <c r="T7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="U7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="V7" s="16" t="s">
+      <c r="U7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="19" t="s">
         <v>22</v>
       </c>
       <c r="W7" s="15">
@@ -1761,14 +1450,14 @@
       <c r="M10" s="2">
         <v>2</v>
       </c>
-      <c r="N10" s="16" t="str">
-        <f t="shared" ref="N10:N29" si="9">CONCATENATE(O10,"+",P10)</f>
+      <c r="N10" s="19" t="str">
+        <f t="shared" ref="N10:N31" si="9">CONCATENATE(O10,"+",P10)</f>
         <v>EL50+GlobalMax</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="P10" s="19" t="s">
         <v>56</v>
       </c>
       <c r="Q10" s="2" t="s">
@@ -1929,7 +1618,7 @@
       <c r="K12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="19">
         <v>100</v>
       </c>
       <c r="M12" s="2">
@@ -2369,17 +2058,17 @@
       <c r="K18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="19">
         <v>100</v>
       </c>
       <c r="M18" s="2">
         <v>2</v>
       </c>
-      <c r="N18" s="16" t="str">
+      <c r="N18" s="19" t="str">
         <f t="shared" si="9"/>
         <v>EL100+GlobalMax</v>
       </c>
-      <c r="O18" s="16" t="s">
+      <c r="O18" s="19" t="s">
         <v>58</v>
       </c>
       <c r="P18" s="2" t="s">
@@ -2439,7 +2128,7 @@
         <v>+GlobalMax</v>
       </c>
       <c r="O19" s="2"/>
-      <c r="P19" s="16" t="s">
+      <c r="P19" s="19" t="s">
         <v>56</v>
       </c>
       <c r="Q19" s="2"/>
@@ -2484,7 +2173,7 @@
         <v>+GlobalMax</v>
       </c>
       <c r="O20" s="2"/>
-      <c r="P20" s="16" t="s">
+      <c r="P20" s="19" t="s">
         <v>56</v>
       </c>
       <c r="Q20" s="2"/>
@@ -2717,14 +2406,14 @@
       <c r="M23" s="2">
         <v>2</v>
       </c>
-      <c r="N23" s="16" t="str">
+      <c r="N23" s="19" t="str">
         <f>CONCATENATE(O23,"+",P23)</f>
         <v>EL100+GlobalMax</v>
       </c>
-      <c r="O23" s="16" t="s">
+      <c r="O23" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P23" s="16" t="s">
+      <c r="P23" s="19" t="s">
         <v>56</v>
       </c>
       <c r="Q23" s="2" t="s">
@@ -2794,23 +2483,23 @@
         <f t="shared" ref="J24" si="39">3-COUNTIF(C24:E24,0)</f>
         <v>3</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L24" s="19">
         <v>100</v>
       </c>
       <c r="M24" s="2">
         <v>2</v>
       </c>
-      <c r="N24" s="16" t="str">
+      <c r="N24" s="19" t="str">
         <f>CONCATENATE(O24,"+",P24)</f>
         <v>EL100+GlobalMax</v>
       </c>
-      <c r="O24" s="16" t="s">
+      <c r="O24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P24" s="16" t="s">
+      <c r="P24" s="19" t="s">
         <v>56</v>
       </c>
       <c r="Q24" s="2" t="s">
@@ -2991,13 +2680,13 @@
       <c r="K28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L28" s="19">
         <v>100</v>
       </c>
       <c r="M28" s="2">
         <v>2</v>
       </c>
-      <c r="N28" s="16" t="str">
+      <c r="N28" s="19" t="str">
         <f t="shared" si="9"/>
         <v>EL100+GlobalMax</v>
       </c>
@@ -3203,14 +2892,14 @@
       <c r="M31" s="2">
         <v>2</v>
       </c>
-      <c r="N31" s="16" t="str">
+      <c r="N31" s="19" t="str">
         <f t="shared" ref="N31" si="49">CONCATENATE(O31,"+",P31)</f>
         <v>EL100+GlobalMax</v>
       </c>
-      <c r="O31" s="16" t="s">
+      <c r="O31" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P31" s="16" t="s">
+      <c r="P31" s="19" t="s">
         <v>56</v>
       </c>
       <c r="Q31" s="2" t="s">
@@ -3361,20 +3050,20 @@
       <c r="K34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="19">
         <v>100</v>
       </c>
       <c r="M34" s="2">
         <v>2</v>
       </c>
-      <c r="N34" s="16" t="str">
+      <c r="N34" s="19" t="str">
         <f t="shared" ref="N34" si="53">CONCATENATE(O34,"+",P34)</f>
         <v>EL100+GlobalMax</v>
       </c>
-      <c r="O34" s="16" t="s">
+      <c r="O34" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P34" s="16" t="s">
+      <c r="P34" s="19" t="s">
         <v>56</v>
       </c>
       <c r="Q34" s="2" t="s">
@@ -3531,14 +3220,14 @@
       <c r="M37" s="2">
         <v>2</v>
       </c>
-      <c r="N37" s="16" t="str">
+      <c r="N37" s="19" t="str">
         <f t="shared" ref="N37" si="57">CONCATENATE(O37,"+",P37)</f>
         <v>EL100+GlobalMax</v>
       </c>
-      <c r="O37" s="16" t="s">
+      <c r="O37" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P37" s="16" t="s">
+      <c r="P37" s="19" t="s">
         <v>56</v>
       </c>
       <c r="Q37" s="2" t="s">
@@ -3607,26 +3296,26 @@
         <v>2</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" ref="J38:J40" si="60">3-COUNTIF(C38:E38,0)</f>
+        <f t="shared" ref="J38" si="60">3-COUNTIF(C38:E38,0)</f>
         <v>3</v>
       </c>
-      <c r="K38" s="16" t="s">
+      <c r="K38" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="16">
+      <c r="L38" s="19">
         <v>100</v>
       </c>
       <c r="M38" s="2">
         <v>2</v>
       </c>
-      <c r="N38" s="16" t="str">
+      <c r="N38" s="19" t="str">
         <f t="shared" ref="N38" si="61">CONCATENATE(O38,"+",P38)</f>
         <v>EL100+GlobalMax</v>
       </c>
-      <c r="O38" s="16" t="s">
+      <c r="O38" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P38" s="16" t="s">
+      <c r="P38" s="19" t="s">
         <v>56</v>
       </c>
       <c r="Q38" s="2" t="s">
@@ -3663,122 +3352,6 @@
         <v>3.5163599537037037E-2</v>
       </c>
       <c r="AB38" s="11"/>
-    </row>
-    <row r="39" spans="1:28" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="11"/>
-    </row>
-    <row r="40" spans="1:28" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="2">
-        <f t="shared" ref="B40" si="62">SUM(C40:E40)</f>
-        <v>41</v>
-      </c>
-      <c r="C40" s="2">
-        <v>7</v>
-      </c>
-      <c r="D40" s="2">
-        <v>29</v>
-      </c>
-      <c r="E40" s="2">
-        <v>5</v>
-      </c>
-      <c r="F40" s="2">
-        <f t="shared" ref="F40" si="63">SUM(G40:I40)</f>
-        <v>27</v>
-      </c>
-      <c r="G40" s="2">
-        <v>6</v>
-      </c>
-      <c r="H40" s="2">
-        <v>19</v>
-      </c>
-      <c r="I40" s="2">
-        <v>2</v>
-      </c>
-      <c r="J40" s="2">
-        <f t="shared" si="60"/>
-        <v>3</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" s="16">
-        <v>100</v>
-      </c>
-      <c r="M40" s="2">
-        <v>2</v>
-      </c>
-      <c r="N40" s="16" t="str">
-        <f>CONCATENATE(O40,"+",P40)</f>
-        <v>EL100+GlobalMax</v>
-      </c>
-      <c r="O40" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="P40" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S40" s="2">
-        <v>1</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W40" s="15">
-        <v>101713</v>
-      </c>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2">
-        <v>97.5</v>
-      </c>
-      <c r="Z40" s="2">
-        <v>96.3</v>
-      </c>
-      <c r="AA40" s="12">
-        <v>8.4118055555555552E-4</v>
-      </c>
-      <c r="AB40" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3788,1409 +3361,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA2CB28-AD30-4801-81ED-5967244D4D54}">
-  <dimension ref="A1:U33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N36" sqref="N36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="3"/>
-    <col min="15" max="15" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="22">
-        <f>G2+I2</f>
-        <v>68068</v>
-      </c>
-      <c r="G2" s="22">
-        <v>68060</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="28">
-        <v>8</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22">
-        <v>99.81</v>
-      </c>
-      <c r="N2" s="22">
-        <v>97.87</v>
-      </c>
-      <c r="O2" s="22">
-        <v>5</v>
-      </c>
-      <c r="P2" s="22">
-        <f>28-O2</f>
-        <v>23</v>
-      </c>
-      <c r="Q2" s="22">
-        <v>28</v>
-      </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="U2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>2</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="28">
-        <f t="shared" ref="F3:F28" si="0">G3+I3</f>
-        <v>200</v>
-      </c>
-      <c r="G3" s="28">
-        <v>192</v>
-      </c>
-      <c r="H3" s="22">
-        <v>200</v>
-      </c>
-      <c r="I3" s="28">
-        <v>8</v>
-      </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="S3" s="24"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
-        <v>3</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="28">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="G4" s="28">
-        <v>62</v>
-      </c>
-      <c r="H4" s="22">
-        <v>162</v>
-      </c>
-      <c r="I4" s="28">
-        <v>8</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="22">
-        <v>10.96</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" s="22">
-        <v>99.85</v>
-      </c>
-      <c r="N4" s="22">
-        <v>97.5</v>
-      </c>
-      <c r="O4" s="22">
-        <v>2</v>
-      </c>
-      <c r="P4" s="22">
-        <v>78</v>
-      </c>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="28">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="G5" s="28">
-        <v>94</v>
-      </c>
-      <c r="H5" s="22">
-        <v>184</v>
-      </c>
-      <c r="I5" s="28">
-        <v>8</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="22">
-        <v>31.97</v>
-      </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="S5" s="24"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
-        <v>5</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="28">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="G6" s="28">
-        <v>94</v>
-      </c>
-      <c r="H6" s="22">
-        <v>184</v>
-      </c>
-      <c r="I6" s="28">
-        <v>8</v>
-      </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="S6" s="24"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>6</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="28">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="G7" s="28">
-        <v>65</v>
-      </c>
-      <c r="H7" s="22">
-        <v>170</v>
-      </c>
-      <c r="I7" s="28">
-        <v>8</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" s="22">
-        <v>29</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" s="22">
-        <v>99.85</v>
-      </c>
-      <c r="N7" s="22">
-        <v>97.5</v>
-      </c>
-      <c r="O7" s="22">
-        <v>2</v>
-      </c>
-      <c r="P7" s="22">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
-        <v>7</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="28">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="G8" s="28">
-        <v>120</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="28">
-        <v>8</v>
-      </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>8</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="28">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="G9" s="28">
-        <v>65</v>
-      </c>
-      <c r="H9" s="22">
-        <v>170</v>
-      </c>
-      <c r="I9" s="28">
-        <v>8</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="K9" s="22">
-        <v>29</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="M9" s="22">
-        <v>99.85</v>
-      </c>
-      <c r="N9" s="22">
-        <v>98.75</v>
-      </c>
-      <c r="O9" s="22">
-        <v>1</v>
-      </c>
-      <c r="P9" s="22">
-        <v>79</v>
-      </c>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>9</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="28">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="G10" s="28">
-        <v>94</v>
-      </c>
-      <c r="H10" s="22">
-        <v>187</v>
-      </c>
-      <c r="I10" s="28">
-        <v>8</v>
-      </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M10" s="22">
-        <v>99.86</v>
-      </c>
-      <c r="N10" s="22">
-        <v>90</v>
-      </c>
-      <c r="O10" s="22">
-        <v>8</v>
-      </c>
-      <c r="P10" s="22">
-        <v>72</v>
-      </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
-        <v>10</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="28">
-        <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-      <c r="G11" s="28">
-        <v>101</v>
-      </c>
-      <c r="H11" s="22">
-        <v>192</v>
-      </c>
-      <c r="I11" s="28">
-        <v>8</v>
-      </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="M11" s="22">
-        <v>99.86</v>
-      </c>
-      <c r="N11" s="22">
-        <v>96.25</v>
-      </c>
-      <c r="O11" s="22">
-        <v>3</v>
-      </c>
-      <c r="P11" s="22">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
-        <v>11</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="28">
-        <f t="shared" si="0"/>
-        <v>158</v>
-      </c>
-      <c r="G12" s="28">
-        <v>150</v>
-      </c>
-      <c r="H12" s="22">
-        <v>504</v>
-      </c>
-      <c r="I12" s="28">
-        <v>8</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="M12" s="22">
-        <v>99.9</v>
-      </c>
-      <c r="N12" s="22">
-        <v>100</v>
-      </c>
-      <c r="O12" s="22">
-        <v>0</v>
-      </c>
-      <c r="P12" s="22">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>12</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="28">
-        <f t="shared" si="0"/>
-        <v>201</v>
-      </c>
-      <c r="G13" s="28">
-        <v>193</v>
-      </c>
-      <c r="H13" s="26">
-        <v>685</v>
-      </c>
-      <c r="I13" s="28">
-        <v>8</v>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="M13" s="26">
-        <v>99.92</v>
-      </c>
-      <c r="N13" s="26">
-        <v>97.5</v>
-      </c>
-      <c r="O13" s="26">
-        <v>2</v>
-      </c>
-      <c r="P13" s="26">
-        <v>78</v>
-      </c>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
-        <v>13</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="28">
-        <f t="shared" si="0"/>
-        <v>298</v>
-      </c>
-      <c r="G14" s="28">
-        <v>290</v>
-      </c>
-      <c r="H14" s="22">
-        <v>700</v>
-      </c>
-      <c r="I14" s="28">
-        <v>8</v>
-      </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="M14" s="22">
-        <v>99.92</v>
-      </c>
-      <c r="N14" s="22">
-        <v>98.75</v>
-      </c>
-      <c r="O14" s="22">
-        <v>1</v>
-      </c>
-      <c r="P14" s="22">
-        <v>79</v>
-      </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
-        <v>14</v>
-      </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="28">
-        <f t="shared" si="0"/>
-        <v>692</v>
-      </c>
-      <c r="G15" s="28">
-        <v>684</v>
-      </c>
-      <c r="H15" s="22">
-        <v>715</v>
-      </c>
-      <c r="I15" s="28">
-        <v>8</v>
-      </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="S15" s="24"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
-        <v>15</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="28">
-        <f t="shared" si="0"/>
-        <v>507</v>
-      </c>
-      <c r="G16" s="28">
-        <v>499</v>
-      </c>
-      <c r="H16" s="22">
-        <v>711</v>
-      </c>
-      <c r="I16" s="28">
-        <v>8</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="S16" s="24"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
-        <v>16</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="28">
-        <f t="shared" si="0"/>
-        <v>406</v>
-      </c>
-      <c r="G17" s="28">
-        <v>398</v>
-      </c>
-      <c r="H17" s="22">
-        <v>707</v>
-      </c>
-      <c r="I17" s="28">
-        <v>8</v>
-      </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="S17" s="24"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
-        <v>17</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="28">
-        <f t="shared" si="0"/>
-        <v>298</v>
-      </c>
-      <c r="G18" s="28">
-        <v>290</v>
-      </c>
-      <c r="H18" s="22">
-        <v>700</v>
-      </c>
-      <c r="I18" s="28">
-        <v>8</v>
-      </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="S18" s="24"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
-        <v>18</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="28">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="G19" s="28">
-        <v>192</v>
-      </c>
-      <c r="H19" s="26">
-        <v>685</v>
-      </c>
-      <c r="I19" s="28">
-        <v>8</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="26">
-        <v>8</v>
-      </c>
-      <c r="L19" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="M19" s="26">
-        <v>99.92</v>
-      </c>
-      <c r="N19" s="26">
-        <v>97.5</v>
-      </c>
-      <c r="O19" s="26">
-        <v>2</v>
-      </c>
-      <c r="P19" s="26">
-        <v>78</v>
-      </c>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
-        <v>19</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="28">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="G20" s="28">
-        <v>192</v>
-      </c>
-      <c r="H20" s="26">
-        <v>685</v>
-      </c>
-      <c r="I20" s="28">
-        <v>8</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20" s="26">
-        <v>8</v>
-      </c>
-      <c r="L20" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="M20" s="26">
-        <v>99.92</v>
-      </c>
-      <c r="N20" s="26">
-        <v>97.5</v>
-      </c>
-      <c r="O20" s="26">
-        <v>2</v>
-      </c>
-      <c r="P20" s="26">
-        <v>78</v>
-      </c>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
-        <v>20</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="28">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="G21" s="28">
-        <v>192</v>
-      </c>
-      <c r="H21" s="27">
-        <v>685</v>
-      </c>
-      <c r="I21" s="28">
-        <v>48</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="S21" s="24"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="28">
-        <f t="shared" si="0"/>
-        <v>151</v>
-      </c>
-      <c r="G22" s="28">
-        <v>103</v>
-      </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28">
-        <v>48</v>
-      </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="S22" s="24"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
-        <v>22</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="28">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="G23" s="28">
-        <v>80</v>
-      </c>
-      <c r="H23" s="27">
-        <v>636</v>
-      </c>
-      <c r="I23" s="28">
-        <v>48</v>
-      </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="S23" s="24"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
-        <v>23</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="28">
-        <f t="shared" si="0"/>
-        <v>744.5</v>
-      </c>
-      <c r="G24" s="28">
-        <v>744</v>
-      </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="M24" s="22">
-        <v>97.56</v>
-      </c>
-      <c r="N24" s="22">
-        <v>100</v>
-      </c>
-      <c r="O24" s="22">
-        <v>0</v>
-      </c>
-      <c r="P24" s="22">
-        <v>80</v>
-      </c>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
-        <v>24</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="28">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="G25" s="28">
-        <v>20</v>
-      </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="28">
-        <v>8</v>
-      </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="M25" s="22">
-        <v>99.84</v>
-      </c>
-      <c r="N25" s="22">
-        <v>98.75</v>
-      </c>
-      <c r="O25" s="22">
-        <v>1</v>
-      </c>
-      <c r="P25" s="22">
-        <v>79</v>
-      </c>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
-        <v>25</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="28">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G26" s="28">
-        <v>52</v>
-      </c>
-      <c r="H26" s="26">
-        <v>601</v>
-      </c>
-      <c r="I26" s="28">
-        <v>48</v>
-      </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26">
-        <v>12</v>
-      </c>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="S26" s="24"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
-        <v>26</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="28">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="G27" s="28">
-        <v>42</v>
-      </c>
-      <c r="H27" s="26"/>
-      <c r="I27" s="28">
-        <v>42</v>
-      </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26">
-        <v>5.3</v>
-      </c>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="S27" s="24"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
-        <v>27</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="28">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="G28" s="28">
-        <v>35</v>
-      </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="28">
-        <v>35</v>
-      </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26">
-        <v>5</v>
-      </c>
-      <c r="L28" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="M28" s="26">
-        <v>99.8</v>
-      </c>
-      <c r="N28" s="26">
-        <v>97.5</v>
-      </c>
-      <c r="O28" s="26">
-        <v>2</v>
-      </c>
-      <c r="P28" s="26">
-        <v>78</v>
-      </c>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="22">
-        <v>28</v>
-      </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="28">
-        <f t="shared" ref="F29:F32" si="1">G29+I29</f>
-        <v>89</v>
-      </c>
-      <c r="G29" s="28">
-        <v>51</v>
-      </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="28">
-        <v>38</v>
-      </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26">
-        <v>5.46</v>
-      </c>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="S29" s="24"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
-        <v>29</v>
-      </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="28">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="G30" s="28">
-        <v>36</v>
-      </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="28">
-        <v>36</v>
-      </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26">
-        <v>4.76</v>
-      </c>
-      <c r="L30" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="M30" s="26">
-        <v>99.8</v>
-      </c>
-      <c r="N30" s="26">
-        <v>97.5</v>
-      </c>
-      <c r="O30" s="26">
-        <v>2</v>
-      </c>
-      <c r="P30" s="26">
-        <v>78</v>
-      </c>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
-        <v>5</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="28">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="G31" s="28">
-        <v>36</v>
-      </c>
-      <c r="H31" s="26"/>
-      <c r="I31" s="28">
-        <v>36</v>
-      </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="M31" s="22">
-        <v>99.8</v>
-      </c>
-      <c r="N31" s="22">
-        <v>100</v>
-      </c>
-      <c r="O31" s="22">
-        <v>0</v>
-      </c>
-      <c r="P31" s="22">
-        <v>80</v>
-      </c>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
-        <v>6</v>
-      </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="28">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="G32" s="28">
-        <v>50</v>
-      </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="28">
-        <v>41</v>
-      </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="M32" s="22">
-        <v>99.53</v>
-      </c>
-      <c r="N32" s="22">
-        <v>90</v>
-      </c>
-      <c r="O32" s="22">
-        <v>8</v>
-      </c>
-      <c r="P32" s="22">
-        <v>72</v>
-      </c>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
-        <v>7</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:R8" xr:uid="{FD86C651-BB38-4E1E-A601-1C9A5A44CBFF}"/>
-  <mergeCells count="16">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="B9:B30"/>
-    <mergeCell ref="C9:C30"/>
-    <mergeCell ref="D9:D30"/>
-    <mergeCell ref="E9:E30"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="javascript:changeTabSubmenu('subsusage')" xr:uid="{A051E046-E9B3-47C7-BF54-1B271F23D149}"/>
-    <hyperlink ref="E3" r:id="rId2" display="javascript:changeTabSubmenu('subsusage')" xr:uid="{C843FAA5-D79D-4108-AEC5-46F3AF866BB2}"/>
-    <hyperlink ref="E6" r:id="rId3" display="javascript:changeTabSubmenu('subsusage')" xr:uid="{194638B4-1068-4A84-BFCB-40729AFAAB0C}"/>
-    <hyperlink ref="E9" r:id="rId4" display="javascript:changeTabSubmenu('subsusage')" xr:uid="{3F8FE458-6AE0-4AC9-9FB1-575488ED07DA}"/>
-    <hyperlink ref="E31" r:id="rId5" display="javascript:changeTabSubmenu('subsusage')" xr:uid="{02529082-4F7E-4160-9523-A4D1B1563B91}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5452,10 +3622,10 @@
       <c r="Y3" s="11"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="16">
         <f t="shared" ref="B4" si="3">SUM(C4:E4)</f>
         <v>42</v>
       </c>
@@ -5468,7 +3638,7 @@
       <c r="E4" s="2">
         <v>4</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="16">
         <f t="shared" ref="F4" si="4">SUM(G4:I4)</f>
         <v>27</v>
       </c>
@@ -5481,36 +3651,36 @@
       <c r="I4" s="2">
         <v>2</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="16">
         <f t="shared" ref="J4" si="5">3-COUNTIF(C4:E4,0)</f>
         <v>3</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34">
+      <c r="L4" s="16"/>
+      <c r="M4" s="16">
         <v>20</v>
       </c>
-      <c r="N4" s="34">
-        <v>1</v>
-      </c>
-      <c r="O4" s="34">
+      <c r="N4" s="16">
+        <v>1</v>
+      </c>
+      <c r="O4" s="16">
         <v>10</v>
       </c>
-      <c r="P4" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="34">
+      <c r="P4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="16">
         <v>3</v>
       </c>
-      <c r="R4" s="34" t="s">
+      <c r="R4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="T4" s="34" t="s">
+      <c r="S4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="U4" s="2">
@@ -5526,26 +3696,26 @@
       <c r="Y4" s="11"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="35"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
       <c r="U5" s="2">
         <v>2</v>
       </c>
@@ -5559,26 +3729,26 @@
       <c r="Y5" s="11"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="36"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
       <c r="U6" s="2">
         <v>3</v>
       </c>
@@ -5594,30 +3764,30 @@
       <c r="Y6" s="11"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="34"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34">
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16">
         <v>100</v>
       </c>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
       <c r="U7" s="2">
         <v>1</v>
       </c>
@@ -5631,28 +3801,28 @@
       <c r="Y7" s="11"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="35"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
       <c r="U8" s="2">
         <v>2</v>
       </c>
@@ -5666,28 +3836,28 @@
       <c r="Y8" s="11"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="36"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
       <c r="U9" s="2">
         <v>3</v>
       </c>
@@ -5703,10 +3873,10 @@
       <c r="Y9" s="11"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="16">
         <f t="shared" ref="B10" si="6">SUM(C10:E10)</f>
         <v>42</v>
       </c>
@@ -5719,7 +3889,7 @@
       <c r="E10" s="2">
         <v>4</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="16">
         <f t="shared" ref="F10" si="7">SUM(G10:I10)</f>
         <v>27</v>
       </c>
@@ -5732,36 +3902,36 @@
       <c r="I10" s="2">
         <v>2</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="16">
         <f t="shared" ref="J10" si="8">3-COUNTIF(C10:E10,0)</f>
         <v>3</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34">
+      <c r="L10" s="16"/>
+      <c r="M10" s="16">
         <v>20</v>
       </c>
-      <c r="N10" s="34">
-        <v>1</v>
-      </c>
-      <c r="O10" s="34">
+      <c r="N10" s="16">
+        <v>1</v>
+      </c>
+      <c r="O10" s="16">
         <v>10</v>
       </c>
-      <c r="P10" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="34">
+      <c r="P10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="16">
         <v>3</v>
       </c>
-      <c r="R10" s="34" t="s">
+      <c r="R10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="T10" s="34" t="s">
+      <c r="S10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="16" t="s">
         <v>22</v>
       </c>
       <c r="U10" s="2">
@@ -5779,26 +3949,26 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="35"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
       <c r="U11" s="2">
         <v>2</v>
       </c>
@@ -5814,26 +3984,26 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="36"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
       <c r="U12" s="2">
         <v>3</v>
       </c>
@@ -5851,30 +4021,30 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="34"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34">
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16">
         <v>100</v>
       </c>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
       <c r="U13" s="2">
         <v>1</v>
       </c>
@@ -5890,28 +4060,28 @@
       <c r="Y13" s="11"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="35"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
       <c r="U14" s="2">
         <v>2</v>
       </c>
@@ -5921,28 +4091,28 @@
       <c r="Y14" s="11"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="36"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
       <c r="U15" s="2">
         <v>3</v>
       </c>
@@ -6021,10 +4191,10 @@
       <c r="Y16" s="14"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="16">
         <f>SUM(C17:E17)</f>
         <v>528</v>
       </c>
@@ -6037,7 +4207,7 @@
       <c r="E17" s="2">
         <v>4</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="16">
         <f>SUM(G17:I17)</f>
         <v>44</v>
       </c>
@@ -6050,36 +4220,36 @@
       <c r="I17" s="2">
         <v>2</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="16">
         <f>3-COUNTIF(C17:E17,0)</f>
         <v>3</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34">
+      <c r="L17" s="16"/>
+      <c r="M17" s="16">
         <v>20</v>
       </c>
-      <c r="N17" s="34">
-        <v>1</v>
-      </c>
-      <c r="O17" s="34">
+      <c r="N17" s="16">
+        <v>1</v>
+      </c>
+      <c r="O17" s="16">
         <v>10</v>
       </c>
-      <c r="P17" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="34">
+      <c r="P17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="16">
         <v>3</v>
       </c>
-      <c r="R17" s="34" t="s">
+      <c r="R17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="S17" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="T17" s="34" t="s">
+      <c r="S17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" s="16" t="s">
         <v>22</v>
       </c>
       <c r="U17" s="2">
@@ -6097,26 +4267,26 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="35"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
       <c r="U18" s="2">
         <v>2</v>
       </c>
@@ -6132,26 +4302,26 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="36"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
       <c r="U19" s="8">
         <v>3</v>
       </c>
@@ -6394,13 +4564,53 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="Q13:Q15"/>
+    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="S13:S15"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="T10:T12"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="S7:S9"/>
     <mergeCell ref="T7:T9"/>
     <mergeCell ref="T4:T6"/>
     <mergeCell ref="L4:L6"/>
@@ -6417,65 +4627,25 @@
     <mergeCell ref="Q4:Q6"/>
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="R4:R6"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="Q7:Q9"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="T10:T12"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="O10:O12"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="S10:S12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="Q13:Q15"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="O13:O15"/>
-    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A6D036-3BFE-4C22-95AA-D3A76B4DE2A7}">
   <dimension ref="B2:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6485,12 +4655,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6555,6 +4720,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>